--- a/analysis/shelf_slope/docs/shelf_slope_table.xlsx
+++ b/analysis/shelf_slope/docs/shelf_slope_table.xlsx
@@ -373,11 +373,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -657,10 +660,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>267</v>
+        <f>ROUND(D13/1.829, 0)</f>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>323</v>
+        <f>A14-1</f>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>301</v>
@@ -669,7 +674,6 @@
         <v>146</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E42" si="0">D14-1</f>
         <v>176</v>
       </c>
       <c r="F13">
@@ -681,10 +685,12 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>324</v>
+        <f t="shared" ref="A14:A44" si="0">ROUND(D14/1.829, 0)</f>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>378</v>
+        <f t="shared" ref="B14:B43" si="1">A15-1</f>
+        <v>112</v>
       </c>
       <c r="C14">
         <v>328</v>
@@ -693,7 +699,6 @@
         <v>177</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>206</v>
       </c>
       <c r="F14">
@@ -705,10 +710,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>379</v>
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
       <c r="B15">
-        <v>434</v>
+        <f t="shared" si="1"/>
+        <v>129</v>
       </c>
       <c r="C15">
         <v>355</v>
@@ -717,7 +724,6 @@
         <v>207</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>237</v>
       </c>
       <c r="F15">
@@ -729,10 +735,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>435</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="B16">
-        <v>491</v>
+        <f t="shared" si="1"/>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>383</v>
@@ -741,7 +749,6 @@
         <v>238</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>268</v>
       </c>
       <c r="F16">
@@ -753,10 +760,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>492</v>
+        <f t="shared" si="0"/>
+        <v>147</v>
       </c>
       <c r="B17">
-        <v>546</v>
+        <f t="shared" si="1"/>
+        <v>162</v>
       </c>
       <c r="C17">
         <v>410</v>
@@ -765,7 +774,6 @@
         <v>269</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>298</v>
       </c>
       <c r="F17">
@@ -777,10 +785,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>547</v>
+        <f t="shared" si="0"/>
+        <v>163</v>
       </c>
       <c r="B18">
-        <v>603</v>
+        <f t="shared" si="1"/>
+        <v>179</v>
       </c>
       <c r="C18">
         <v>437</v>
@@ -789,7 +799,6 @@
         <v>299</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="F18">
@@ -801,10 +810,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>604</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="B19">
-        <v>657</v>
+        <f t="shared" si="1"/>
+        <v>196</v>
       </c>
       <c r="C19">
         <v>465</v>
@@ -813,7 +824,6 @@
         <v>330</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>359</v>
       </c>
       <c r="F19">
@@ -825,10 +835,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>658</v>
+        <f t="shared" si="0"/>
+        <v>197</v>
       </c>
       <c r="B20">
-        <v>712</v>
+        <f t="shared" si="1"/>
+        <v>212</v>
       </c>
       <c r="C20">
         <v>492</v>
@@ -837,7 +849,6 @@
         <v>360</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>389</v>
       </c>
       <c r="F20">
@@ -849,10 +860,12 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>713</v>
+        <f t="shared" si="0"/>
+        <v>213</v>
       </c>
       <c r="B21">
-        <v>769</v>
+        <f t="shared" si="1"/>
+        <v>229</v>
       </c>
       <c r="C21">
         <v>519</v>
@@ -861,7 +874,6 @@
         <v>390</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="F21">
@@ -873,10 +885,12 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>770</v>
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="B22">
-        <v>824</v>
+        <f t="shared" si="1"/>
+        <v>246</v>
       </c>
       <c r="C22">
         <v>547</v>
@@ -885,7 +899,6 @@
         <v>421</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="F22">
@@ -897,10 +910,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>825</v>
+        <f t="shared" si="0"/>
+        <v>247</v>
       </c>
       <c r="B23">
-        <v>881</v>
+        <f t="shared" si="1"/>
+        <v>263</v>
       </c>
       <c r="C23">
         <v>574</v>
@@ -909,7 +924,6 @@
         <v>451</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>481</v>
       </c>
       <c r="F23">
@@ -921,10 +935,12 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>882</v>
+        <f t="shared" si="0"/>
+        <v>264</v>
       </c>
       <c r="B24">
-        <v>935</v>
+        <f t="shared" si="1"/>
+        <v>279</v>
       </c>
       <c r="C24">
         <v>601</v>
@@ -933,7 +949,6 @@
         <v>482</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>511</v>
       </c>
       <c r="F24">
@@ -945,10 +960,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>936</v>
+        <f t="shared" si="0"/>
+        <v>280</v>
       </c>
       <c r="B25">
-        <v>992</v>
+        <f t="shared" si="1"/>
+        <v>296</v>
       </c>
       <c r="C25">
         <v>628</v>
@@ -957,7 +974,6 @@
         <v>512</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>542</v>
       </c>
       <c r="F25">
@@ -969,10 +985,12 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>993</v>
+        <f t="shared" si="0"/>
+        <v>297</v>
       </c>
       <c r="B26">
-        <v>1047</v>
+        <f t="shared" si="1"/>
+        <v>312</v>
       </c>
       <c r="C26">
         <v>656</v>
@@ -981,7 +999,6 @@
         <v>543</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>572</v>
       </c>
       <c r="F26">
@@ -993,10 +1010,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1048</v>
+        <f t="shared" si="0"/>
+        <v>313</v>
       </c>
       <c r="B27">
-        <v>1104</v>
+        <f t="shared" si="1"/>
+        <v>329</v>
       </c>
       <c r="C27">
         <v>683</v>
@@ -1005,7 +1024,6 @@
         <v>573</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>603</v>
       </c>
       <c r="F27">
@@ -1017,10 +1035,12 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1105</v>
+        <f t="shared" si="0"/>
+        <v>330</v>
       </c>
       <c r="B28">
-        <v>1159</v>
+        <f t="shared" si="1"/>
+        <v>346</v>
       </c>
       <c r="C28">
         <v>710</v>
@@ -1029,7 +1049,6 @@
         <v>604</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="F28">
@@ -1041,10 +1060,12 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1160</v>
+        <f t="shared" si="0"/>
+        <v>347</v>
       </c>
       <c r="B29">
-        <v>1215</v>
+        <f t="shared" si="1"/>
+        <v>363</v>
       </c>
       <c r="C29">
         <v>738</v>
@@ -1053,7 +1074,6 @@
         <v>634</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>664</v>
       </c>
       <c r="F29">
@@ -1065,10 +1085,12 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1216</v>
+        <f t="shared" si="0"/>
+        <v>364</v>
       </c>
       <c r="B30">
-        <v>1270</v>
+        <f t="shared" si="1"/>
+        <v>379</v>
       </c>
       <c r="C30">
         <v>765</v>
@@ -1077,7 +1099,6 @@
         <v>665</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>694</v>
       </c>
       <c r="F30">
@@ -1089,10 +1110,12 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1271</v>
+        <f t="shared" si="0"/>
+        <v>380</v>
       </c>
       <c r="B31">
-        <v>1327</v>
+        <f t="shared" si="1"/>
+        <v>396</v>
       </c>
       <c r="C31">
         <v>792</v>
@@ -1101,7 +1124,6 @@
         <v>695</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>725</v>
       </c>
       <c r="F31">
@@ -1113,10 +1135,12 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1328</v>
+        <f t="shared" si="0"/>
+        <v>397</v>
       </c>
       <c r="B32">
-        <v>1382</v>
+        <f t="shared" si="1"/>
+        <v>412</v>
       </c>
       <c r="C32">
         <v>820</v>
@@ -1125,7 +1149,6 @@
         <v>726</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>755</v>
       </c>
       <c r="F32">
@@ -1137,10 +1160,12 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1383</v>
+        <f t="shared" si="0"/>
+        <v>413</v>
       </c>
       <c r="B33">
-        <v>1438</v>
+        <f t="shared" si="1"/>
+        <v>429</v>
       </c>
       <c r="C33">
         <v>847</v>
@@ -1149,7 +1174,6 @@
         <v>756</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>786</v>
       </c>
       <c r="F33">
@@ -1161,10 +1185,12 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1439</v>
+        <f t="shared" si="0"/>
+        <v>430</v>
       </c>
       <c r="B34">
-        <v>1493</v>
+        <f t="shared" si="1"/>
+        <v>446</v>
       </c>
       <c r="C34">
         <v>874</v>
@@ -1173,7 +1199,6 @@
         <v>787</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>816</v>
       </c>
       <c r="F34">
@@ -1185,16 +1210,20 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1494</v>
+        <f t="shared" si="0"/>
+        <v>447</v>
       </c>
       <c r="B35">
-        <v>1550</v>
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="C35">
+        <v>902</v>
       </c>
       <c r="D35">
         <v>817</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>847</v>
       </c>
       <c r="F35">
@@ -1206,10 +1235,12 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1551</v>
+        <f t="shared" si="0"/>
+        <v>464</v>
       </c>
       <c r="B36">
-        <v>1605</v>
+        <f t="shared" si="1"/>
+        <v>479</v>
       </c>
       <c r="C36">
         <v>930</v>
@@ -1218,7 +1249,6 @@
         <v>848</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>877</v>
       </c>
       <c r="F36">
@@ -1230,10 +1260,12 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1606</v>
+        <f t="shared" si="0"/>
+        <v>480</v>
       </c>
       <c r="B37">
-        <v>1662</v>
+        <f t="shared" si="1"/>
+        <v>496</v>
       </c>
       <c r="C37">
         <v>957</v>
@@ -1242,7 +1274,6 @@
         <v>878</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>908</v>
       </c>
       <c r="F37">
@@ -1254,10 +1285,12 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1663</v>
+        <f t="shared" si="0"/>
+        <v>497</v>
       </c>
       <c r="B38">
-        <v>1716</v>
+        <f t="shared" si="1"/>
+        <v>512</v>
       </c>
       <c r="C38">
         <v>984</v>
@@ -1266,7 +1299,6 @@
         <v>909</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>938</v>
       </c>
       <c r="F38">
@@ -1278,10 +1310,12 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1717</v>
+        <f t="shared" si="0"/>
+        <v>513</v>
       </c>
       <c r="B39">
-        <v>1773</v>
+        <f t="shared" si="1"/>
+        <v>529</v>
       </c>
       <c r="C39">
         <v>1012</v>
@@ -1290,7 +1324,6 @@
         <v>939</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>969</v>
       </c>
       <c r="F39">
@@ -1302,10 +1335,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1774</v>
+        <f t="shared" si="0"/>
+        <v>530</v>
       </c>
       <c r="B40">
-        <v>1828</v>
+        <f t="shared" si="1"/>
+        <v>546</v>
       </c>
       <c r="C40">
         <v>1039</v>
@@ -1314,7 +1349,6 @@
         <v>970</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>999</v>
       </c>
       <c r="F40">
@@ -1326,10 +1360,12 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1829</v>
+        <f t="shared" si="0"/>
+        <v>547</v>
       </c>
       <c r="B41">
-        <v>1885</v>
+        <f t="shared" si="1"/>
+        <v>563</v>
       </c>
       <c r="C41">
         <v>1066</v>
@@ -1338,7 +1374,6 @@
         <v>1000</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="F41">
@@ -1350,10 +1385,12 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1886</v>
+        <f t="shared" si="0"/>
+        <v>564</v>
       </c>
       <c r="B42">
-        <v>1940</v>
+        <f t="shared" si="1"/>
+        <v>579</v>
       </c>
       <c r="C42">
         <v>1094</v>
@@ -1362,7 +1399,6 @@
         <v>1031</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>1060</v>
       </c>
       <c r="F42">
@@ -1374,10 +1410,12 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1941</v>
+        <f t="shared" si="0"/>
+        <v>580</v>
       </c>
       <c r="B43">
-        <v>1994</v>
+        <f t="shared" si="1"/>
+        <v>596</v>
       </c>
       <c r="C43">
         <v>1121</v>
@@ -1386,7 +1424,6 @@
         <v>1061</v>
       </c>
       <c r="E43">
-        <f>D44-1</f>
         <v>1090</v>
       </c>
       <c r="F43">
@@ -1398,10 +1435,12 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1995</v>
+        <f t="shared" si="0"/>
+        <v>597</v>
       </c>
       <c r="B44">
-        <v>2050</v>
+        <f>ROUND(E44/1.829, 0)</f>
+        <v>613</v>
       </c>
       <c r="C44">
         <v>1148</v>
@@ -1421,11 +1460,9 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>ROUND(D45/1.829, 0)</f>
         <v>5</v>
       </c>
       <c r="B45">
-        <f>A46-1</f>
         <v>6</v>
       </c>
       <c r="C45">
@@ -1435,11 +1472,9 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <f>D46-1</f>
         <v>11</v>
       </c>
       <c r="F45">
-        <f>ROUND(C45*1.829, 0)</f>
         <v>137</v>
       </c>
       <c r="G45" t="s">
@@ -1448,11 +1483,9 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" ref="A46:B86" si="1">ROUND(D46/1.829, 0)</f>
         <v>7</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B86" si="2">A47-1</f>
         <v>18</v>
       </c>
       <c r="C46">
@@ -1462,11 +1495,9 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:E86" si="3">D47-1</f>
         <v>34</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F86" si="4">ROUND(C46*1.829, 0)</f>
         <v>183</v>
       </c>
       <c r="G46" t="s">
@@ -1475,11 +1506,9 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="C47">
@@ -1489,11 +1518,9 @@
         <v>35</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
         <v>229</v>
       </c>
       <c r="G47" t="s">
@@ -1502,11 +1529,9 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C48">
@@ -1516,11 +1541,9 @@
         <v>58</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="G48" t="s">
@@ -1529,11 +1552,9 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C49">
@@ -1543,11 +1564,9 @@
         <v>81</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="G49" t="s">
@@ -1556,11 +1575,9 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C50">
@@ -1570,11 +1587,9 @@
         <v>103</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
         <v>366</v>
       </c>
       <c r="G50" t="s">
@@ -1583,11 +1598,9 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C51">
@@ -1597,11 +1610,9 @@
         <v>126</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
         <v>412</v>
       </c>
       <c r="G51" t="s">
@@ -1610,11 +1621,9 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C52">
@@ -1624,11 +1633,9 @@
         <v>149</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
         <v>171</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
         <v>457</v>
       </c>
       <c r="G52" t="s">
@@ -1637,11 +1644,9 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="C53">
@@ -1651,11 +1656,9 @@
         <v>172</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
         <v>503</v>
       </c>
       <c r="G53" t="s">
@@ -1664,11 +1667,9 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="C54">
@@ -1678,11 +1679,9 @@
         <v>195</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
         <v>549</v>
       </c>
       <c r="G54" t="s">
@@ -1691,11 +1690,9 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="C55">
@@ -1705,11 +1702,9 @@
         <v>218</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
         <v>594</v>
       </c>
       <c r="G55" t="s">
@@ -1718,11 +1713,9 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="C56">
@@ -1732,11 +1725,9 @@
         <v>241</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
         <v>262</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
         <v>640</v>
       </c>
       <c r="G56" t="s">
@@ -1745,11 +1736,9 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="C57">
@@ -1759,11 +1748,9 @@
         <v>263</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
         <v>285</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
         <v>686</v>
       </c>
       <c r="G57" t="s">
@@ -1772,11 +1759,9 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="C58">
@@ -1786,11 +1771,9 @@
         <v>286</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
         <v>308</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
         <v>732</v>
       </c>
       <c r="G58" t="s">
@@ -1799,11 +1782,9 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="C59">
@@ -1813,11 +1794,9 @@
         <v>309</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
         <v>331</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
         <v>777</v>
       </c>
       <c r="G59" t="s">
@@ -1826,11 +1805,9 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="C60">
@@ -1840,11 +1817,9 @@
         <v>332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
         <v>354</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
         <v>823</v>
       </c>
       <c r="G60" t="s">
@@ -1853,11 +1828,9 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
         <v>194</v>
       </c>
       <c r="B61">
-        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="C61">
@@ -1867,11 +1840,9 @@
         <v>355</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
         <v>377</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
         <v>869</v>
       </c>
       <c r="G61" t="s">
@@ -1880,11 +1851,9 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="B62">
-        <f t="shared" si="2"/>
         <v>218</v>
       </c>
       <c r="C62">
@@ -1894,11 +1863,9 @@
         <v>378</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
         <v>915</v>
       </c>
       <c r="G62" t="s">
@@ -1907,11 +1874,9 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="B63">
-        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="C63">
@@ -1921,11 +1886,9 @@
         <v>401</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
         <v>422</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
         <v>960</v>
       </c>
       <c r="G63" t="s">
@@ -1934,11 +1897,9 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="B64">
-        <f t="shared" si="2"/>
         <v>243</v>
       </c>
       <c r="C64">
@@ -1948,11 +1909,9 @@
         <v>423</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
         <v>445</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
         <v>1006</v>
       </c>
       <c r="G64" t="s">
@@ -1961,11 +1920,9 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="C65">
@@ -1975,11 +1932,9 @@
         <v>446</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
         <v>468</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
         <v>1052</v>
       </c>
       <c r="G65" t="s">
@@ -1988,11 +1943,9 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="B66">
-        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="C66">
@@ -2002,11 +1955,9 @@
         <v>469</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
         <v>491</v>
       </c>
       <c r="F66">
-        <f t="shared" si="4"/>
         <v>1097</v>
       </c>
       <c r="G66" t="s">
@@ -2015,11 +1966,9 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
         <v>284</v>
       </c>
       <c r="C67">
@@ -2029,11 +1978,9 @@
         <v>492</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
         <v>1143</v>
       </c>
       <c r="G67" t="s">
@@ -2042,11 +1989,9 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="C68">
@@ -2056,11 +2001,9 @@
         <v>521</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
         <v>547</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
         <v>1189</v>
       </c>
       <c r="G68" t="s">
@@ -2069,11 +2012,9 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
         <v>313</v>
       </c>
       <c r="C69">
@@ -2083,11 +2024,9 @@
         <v>548</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
         <v>574</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
         <v>1235</v>
       </c>
       <c r="G69" t="s">
@@ -2096,11 +2035,9 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
         <v>314</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
         <v>328</v>
       </c>
       <c r="C70">
@@ -2110,11 +2047,9 @@
         <v>575</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
         <v>601</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
         <v>1280</v>
       </c>
       <c r="G70" t="s">
@@ -2123,11 +2058,9 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
         <v>329</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="C71">
@@ -2137,11 +2070,9 @@
         <v>602</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
         <v>627</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
         <v>1326</v>
       </c>
       <c r="G71" t="s">
@@ -2150,11 +2081,9 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
         <v>343</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
         <v>357</v>
       </c>
       <c r="C72">
@@ -2164,11 +2093,9 @@
         <v>628</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
         <v>654</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
         <v>1372</v>
       </c>
       <c r="G72" t="s">
@@ -2177,11 +2104,9 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
         <v>372</v>
       </c>
       <c r="C73">
@@ -2191,11 +2116,9 @@
         <v>655</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
         <v>681</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
         <v>1417</v>
       </c>
       <c r="G73" t="s">
@@ -2204,11 +2127,9 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
         <v>373</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
         <v>387</v>
       </c>
       <c r="C74">
@@ -2218,11 +2139,9 @@
         <v>682</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
         <v>708</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
         <v>1463</v>
       </c>
       <c r="G74" t="s">
@@ -2231,11 +2150,9 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
         <v>401</v>
       </c>
       <c r="C75">
@@ -2245,11 +2162,9 @@
         <v>709</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
         <v>734</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
         <v>1509</v>
       </c>
       <c r="G75" t="s">
@@ -2258,11 +2173,9 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
         <v>402</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
         <v>416</v>
       </c>
       <c r="C76">
@@ -2272,11 +2185,9 @@
         <v>735</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
         <v>761</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
         <v>1555</v>
       </c>
       <c r="G76" t="s">
@@ -2285,11 +2196,9 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
         <v>417</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
         <v>430</v>
       </c>
       <c r="C77">
@@ -2299,11 +2208,9 @@
         <v>762</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
         <v>788</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="G77" t="s">
@@ -2312,11 +2219,9 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
         <v>431</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="C78">
@@ -2326,11 +2231,9 @@
         <v>789</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
         <v>815</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
         <v>1646</v>
       </c>
       <c r="G78" t="s">
@@ -2339,11 +2242,9 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
         <v>459</v>
       </c>
       <c r="C79">
@@ -2353,11 +2254,9 @@
         <v>816</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
         <v>841</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
         <v>1692</v>
       </c>
       <c r="G79" t="s">
@@ -2366,11 +2265,9 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
         <v>474</v>
       </c>
       <c r="C80">
@@ -2380,11 +2277,9 @@
         <v>842</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
         <v>868</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
         <v>1738</v>
       </c>
       <c r="G80" t="s">
@@ -2393,11 +2288,9 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
         <v>475</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
         <v>489</v>
       </c>
       <c r="C81">
@@ -2407,11 +2300,9 @@
         <v>869</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
         <v>895</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
         <v>1783</v>
       </c>
       <c r="G81" t="s">
@@ -2420,11 +2311,9 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
         <v>504</v>
       </c>
       <c r="C82">
@@ -2434,11 +2323,9 @@
         <v>896</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
         <v>922</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
         <v>1829</v>
       </c>
       <c r="G82" t="s">
@@ -2447,11 +2334,9 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
         <v>505</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
         <v>518</v>
       </c>
       <c r="C83">
@@ -2461,11 +2346,9 @@
         <v>923</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
         <v>948</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
         <v>1875</v>
       </c>
       <c r="G83" t="s">
@@ -2474,11 +2357,9 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
         <v>519</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="C84">
@@ -2488,11 +2369,9 @@
         <v>949</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
         <v>975</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
         <v>1920</v>
       </c>
       <c r="G84" t="s">
@@ -2501,11 +2380,9 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
         <v>534</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
         <v>547</v>
       </c>
       <c r="C85">
@@ -2515,11 +2392,9 @@
         <v>976</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
         <v>1002</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
         <v>1966</v>
       </c>
       <c r="G85" t="s">
@@ -2528,11 +2403,9 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
         <v>548</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
         <v>562</v>
       </c>
       <c r="C86">
@@ -2545,7 +2418,6 @@
         <v>1028</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="G86" t="s">
